--- a/biology/Histoire de la zoologie et de la botanique/Giovanni_Canestrini/Giovanni_Canestrini.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giovanni_Canestrini/Giovanni_Canestrini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Canestrini est un naturaliste italien, né le 26 décembre 1835 à Revò d'Anaunia dans le Trentin et mort le 14 février 1900 à 64 ans à Padoue. Canestrini joue un rôle considérable sur l’introduction des théories sur l’évolution en Italie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Canestrini fait ses études à Gorizia et à Merano avant de partir à l’université de Vienne où il est diplômé de philosophie en 1861. Il enseigne l’histoire naturelle au lycée de Gênes et est l’assistant de Michele Lessona (1823-1894). De 1862 à 1869, il est Privatdozent à l’université de Modène, puis à celle de Padoue où il enseigne la zoologie, l’anatomie et la physiologie.
 Il fonde la Società dei naturalisti modenesi (1862), la Società veneto-trentina di scienze naturali (1871), la société Dante Alighieri à Trente et à Padoue. Ses cours, ouverts à tous, d’anthropologie et de bactériologie connaissent un grand succès. De 1858 à 1899, il fait paraître 198 publications scientifiques et 18 biographies. Fervent partisan du darwinisme, Canestrini contribue à la vulgarisation scientifique. La ville de Trente et l’université de Padoue érigèrent un buste à son honneur en 1902.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Origine dell'uomo, Milano, 1866.
 Compendio di zoologia e anatomia comparata, 3 voll, Milano, 1869, 1870, 1871.
@@ -558,9 +574,7 @@
 La filossera. 1888.
 Per l'evoluzione. Recensione e nuovi studi. 1894.
 Prospetto dell'Arcafauna italiana, 8 voll. Padova, 1885 - 1899.
-Batteriologia, Milano, 1896.
-Publications en co-auteur
-(it) Canestrini G. &amp; Fanzago F., 1876. Nuovi Acari Italiani. Famiglia dei Tetranychini. Societá Veneto-Trentina di Societá Naturali Atti.</t>
+Batteriologia, Milano, 1896.</t>
         </is>
       </c>
     </row>
@@ -585,10 +599,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications en co-auteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(it) Canestrini G. &amp; Fanzago F., 1876. Nuovi Acari Italiani. Famiglia dei Tetranychini. Societá Veneto-Trentina di Societá Naturali Atti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giovanni_Canestrini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giovanni_Canestrini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pietro Lorenzi &amp; Silvio Bruno (2002). Uomini, storie, serpenti contributi alla storiografia erpetologica del Trentino-Alto Adige e Dintorni. Annali del Museo Civico di Rovereto, 17 : 173-274.</t>
         </is>
